--- a/data/messages.xlsx
+++ b/data/messages.xlsx
@@ -20649,7 +20649,7 @@
   <dimension ref="A1:C5882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
